--- a/Conditional Formatting Excel Tutorial File.xlsx
+++ b/Conditional Formatting Excel Tutorial File.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sadiqunnurayan/Documents/GitHub/Excel-Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C165D82C-3001-7149-A491-F790C619B578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DB7359-C612-0946-AE4E-EF65D358E736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{5EA44D8F-79D3-45F5-A0F6-C7F47358B7ED}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="23260" windowHeight="12460" xr2:uid="{5EA44D8F-79D3-45F5-A0F6-C7F47358B7ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Demographics" sheetId="1" r:id="rId1"/>
